--- a/tests/testonto/excelparser/onto.xlsx
+++ b/tests/testonto/excelparser/onto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="598">
   <si>
     <t xml:space="preserve">Metadata name</t>
   </si>
@@ -103,19 +103,46 @@
     <t xml:space="preserve">Imported ontologies</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/emmo.ttl;https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/math.ttl;https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/materials.ttl;https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/metrology.ttl;https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/isq.ttl;https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/properties.ttl;https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/models.ttl;https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/chemistry.ttl</t>
+    <t xml:space="preserve">https://emmo-repo.github.io/versions/1.0.0-beta3/emmo-inferred-domain.ttl</t>
   </si>
   <si>
     <t xml:space="preserve">Full IRI of imported ontologies. Separate with ";". If you import many ontologies, it is easier to create a new sheet called «Imports» listing all imported ontologies.</t>
   </si>
   <si>
+    <t xml:space="preserve">Resolvable URL or path to imported ontologies</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/emmo.ttl</t>
   </si>
   <si>
-    <t xml:space="preserve"># Imported ontologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Resolvable URL or path to imported ontologies</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/perspective.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/holistic.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/persistence.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/physicalistic.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/reductionistic.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/semiotics.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/perceptual.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/persholistic.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/symbolic.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/middle.ttl</t>
   </si>
   <si>
     <t xml:space="preserve">https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/math.ttl</t>
@@ -307,1005 +334,1122 @@
     <t xml:space="preserve">Crystal;PhaseOfMatter</t>
   </si>
   <si>
+    <t xml:space="preserve">SinglePhaseParticle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particle containing one PhaseOfMatter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the physical sciences, a particle (or corpuscule in older texts) is a small localized object to which can be ascribed several physical or chemical properties, such as volume, density, or mass. [Wikipedia]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particle;PhaseOfMatter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasPart some PhaseOfMatter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasPart exactly 1 PhaseOfMatter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrimaryParticle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SinglePhaseParticle forming during solidification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MonoCrystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleCrystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A material consisting of a single crystal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PolyCrystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuous material consisting of a multiple connected crystal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispersoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finely divided particles of one substance [PhaseOfMatter] dispersed in another [Merriam-Webster]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clarify difference from precipitate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finely dispersed particles containing one PhaseOfMatter forming from solid phaseOfMatter by precipitation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicroStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fine structure (in a metal or other material) which can be made visible and examined with a microscope. [Oxford Languages]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A microstructure is a spatial pattern with at least one solid direct part.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material;SpatialPattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasPart some Solid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasPart min 1 Solid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An object in the micorstructure. A region of a crystalline material with (almost) the same crystal orientation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A common definition is that grains are separated from their neighbour grains by grain boundaries with a misorientation angle higher than 15 degrees.;Subpart of PolyCrystal consituted primarily of one CrystallinePhase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inverse(hasPart) only MicroStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubGrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A region of a grain with (almost) the same crystal orientation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A common definition is that subgrains are separated from their neighbours by subgrain boundaries with a misorientation angle between 5 and 15 degrees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inverse(hasPart) only Grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The orientation of a real world object relative to a main reference frame. It can be expressed as the transformation from the main reference frame to a local reference frame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three independent values are needed to describe the orientation of the local reference frame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For texture is the local reference frame typically connected to the crystal directions and the main reference frame to the rolling, transverse and normal directions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhysicalQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RepresentativeElementaryVolume</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">RepresentativeVolumeElement;REV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;RVE</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The smallest volume over which a measurement can be made that will provide a value representative for the whole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wikipediaEntry=https://en.wikipedia.org/wiki/Representative_elementary_volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContinuumModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misorientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The difference between two orientations.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The misorientation depends only on the two local reference frames, but not on the main </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">reference frame.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Misorientation between two grains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReferenceFrame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FrameOfReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An abstract coordinate system with an origin, oritation and scale specified by a set of reference points. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wikipediaEntry=https://en.wikipedia.org/wiki/Frame_of_reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhysicalQuantity;ConventionalQuantitativeProperty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainReferenceFrame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A conventional global reference frame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocalRererenceFrame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference frame that is local to (follows) a real world object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EulerAngles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three angles describing the orientation of a real world object with respect to a main reference frame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wikipediaEntry=https://en.wikipedia.org/wiki/Euler_angles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A function that provides the possible values for a variable and how often they occur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MathematicalFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProbabilityDistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distribution that gives the probabilities of the occurence of different possible outcomes (of a measurement).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wikipediaEntry=https://en.wikipedia.org/wiki/Probability_distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhysicalField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A physical quantity that has a value in each point in space and time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wikipediaEntry=https://en.wikipedia.org/wiki/Field_(physics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MathematicalFunction;PhysicalQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhysicalScalarField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A physical field who’s range are scalars.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhysicalVectorField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A physical field who’s range are vectors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhysicalTensorField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A physical field who’s range are tensors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhysicalDiscretisedField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A physical field that is only defined in a descrete set of points in space and time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic discretisation of a volume.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThreeManifold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesh with one type of volume elements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VoxelGrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grid with cubic elements of exactly the same size.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GrainSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length measured according to a specified procedure (and/or model)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inverse(hasProperty) only Grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EquivalentSphericalGrainSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EquivalentSphericalGrainDiameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of an equivalent sphere with the same volume as the grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EquivalentGrainSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The grain volume divided by the grain surface area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GrainSurfaceArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surface area of a grain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GrainVolume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The volume of a grain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CylinderShapedGrainLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length or thickness of a grain who's shape can be approximated with a cylinder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CylinderShapedGrainDiameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of a grain who's shape can be approximated with a cylinder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perspective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concept (prefLabel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elucidation (definition intended for humans)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semiotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mereological</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topological</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statistical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alloy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an amount of matter characterized by a composition. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">forms only one liquid phase under melting ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasProperty Composition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geometrical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AntisiteDefect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An AntisiteDefect occurs in an ordered alloy or compound when atoms of different type exchange positions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA PointDefect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defined in EMMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA MathematicalEntity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AspectRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the ration between the larges and the smalles spatial extension of an object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicrostructureStateVariable, Value &gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AverageCurvature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Curvature of a boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicrostructureStateVariable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AverageDendriteTipRadius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the radius/curvature at the dendrite tip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AverageGrainDiameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equivalent to AverageGrainSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicrostructureStateVariable, Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isSpatialDirectPartOf GrainDiameterDistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to wikipedia/https://www.merriam-webster.com/dictionary/crystallite, crystallites and grains are the same. A crystallite isA single grain in a polycrystalline substance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AverageGrainVolume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Volume divided by Number of Grains </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicrostructureStateVariable, Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AverageSpacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the arithmetic average of multiple spacing valus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boundaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a volume where at least two things collocate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differentiate Interface - mathematically defined and physical boundary that has a volume. Do we need the mathematical definition?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BulkDefect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imperfection in the geometrical pattern/uniformity in solid. Equivalent to geometrical discontinuity or chemical discontinuity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. pore, oxide, particle, irregular particle, machining chip, crack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Defect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BurgersVector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statiscal property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanical properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CauchyStress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not a geometrical property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centroid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe define crystalDefect isA Defect. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">material type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CeramicMetalComposite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite having a CeramicMatrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cermet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dislocation detailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoherentPhaseBoundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundray between two crystalline solid phases - epitaxial layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a clear limit? Or are we just talking of small or large mismatch?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA SolidPhaseBoundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoincidentLatticeSite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">special type of grain boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belongs to crystallography?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColumnarDendrite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendrite with a preferred orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Dendrite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompositeStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A man made combination of at least two solid phases forming a microstructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the relative amounts of constituents normalized by the total amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do we have a definition for constituents?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of Atoms of a specific ChemicalElement in a Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConstitutiveLaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A materials relation that describe the total mechanical behaviour of a material via a set of equations relating strain rates to stresses, temperature, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaterialRelation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA BulkDefect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CriticalResolvedShearStress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystallite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CrystallographicDefect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imperfection in the regular geometrical arrangement of the atoms in a crystalline  solid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CrystalStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Links to CrystalOntology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CubicSymmetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symmetry under 90 rotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">related to microstructure ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import from crystallography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Symmetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curvature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curvature of a boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA GeometricEntity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicrostructureDefects and Crystallographic defects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendrite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is a characteristic tree like structure occuring in microstructures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasPorperty SDAS, hasProperty DendriteTipRadius, hasProperty some Symmetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DendriteArray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiple dendrites ordered in an array as occuring e.g. during directional solidification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasProperty PDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DendriteTipRadius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A value of some variable normed by a volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disclination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In crystallography, a disclination is a line defect in which rotational symmetry is violated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA LineDefect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dislocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a linear crystallographic defect or irregularity within a crystal structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystallographic defect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DislocationDensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of DislocationLines per Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DislocationJunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DislocationLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DualBoundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a boundary volume , where two things collocate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasSign Plane; isA Boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EdgeDislocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge dislocations are caused by the termination of a plane of atoms in the middle of a crystal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Dislocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EffectiveStress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA scalarField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EngineeringStrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metallic alloy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EquiaxedDendrite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EquivalentGrainRadius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radius of a fictitious spherical Grain having the same Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EutecticSpacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the distance between the two eutectic phases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EutecticStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a Structure comprising two mutually connected solid phases and none of the phases encloses the other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eutectic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EutectoidStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">example Pearlite...Origin solid state transformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eutectoid differes from Euetctic in terms of lengt scale...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasProperty Spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FacetedPhase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase having a sharp (monolayer) boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polymer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an object being thin in 2 spatial dimensions and being structurally flexible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasQualitativeProperty Fexlible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForestDislocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank-ReadSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FrenkelDefect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A FrenkelDefect is a defect in the lattice crystal where an atom or ion occupies a normally vacant site other than its own. As a result the atom or ion leaves its own lattice site vacant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Globulite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA EquiaxedDendrite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an object in the micorstructure. A region of a crystalline material with (almost) the same crystal orientation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not restrictive enough. A pore for example is not a grain. (Identical to Crystallite? )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Crystallite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GrainBoundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the interface between two grains, or crystallites, in a polycrystalline material.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasContactWith exactly 2 Grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">texture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GrainCluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two or more neighboring grains (for Alamel and GIA model purposes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GrainDiameterDistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equivalent to GrainSizeDistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicrostructureStateVariable, Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GrainRadiusDistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Volume of a Grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granularity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wikipedia: Granularity (also called graininess), the condition of existing in granules or grains, refers to the extent to which a material or system is composed of distinguishable pieces. It can either refer to the extent to which a larger entity is subdivided, or the extent to which groups of smaller indistinguishable entities have joined together to become larger distinguishable entities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HardeningModulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA ScalarField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HexagonalSymmetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symmetry under 60 rotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HighAngleGrainBoundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA GrainBoundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HirshLock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IncoherentPhaseBoundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundray between two crystalline solid phases - incoherent lattices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InterstitialDefect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An interstitial defect is an atom that occupies a site in the crystal structure at which there is usually not an atom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IrregularEutectic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">example Al-Si, Cast Iron  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasPart FacetedPhase, isA Eutectic, hasProperty AverageSpacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LamellarEutectic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stack of planar structures of the two phases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA RegularEutectic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LankfordCoefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check which are generic and which are for multi-crystalline structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LineDefect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A line defect is a line along which whole rows of atoms in a solid are arranged anomalously.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA CrystallographicDefect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LomerCottrellLock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LongFiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fibers extending beyond the RVE boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LowAngleGrainBoundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not sure wther we need this for "Microstructure.."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MassDensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaterialState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The state of a system that is a material.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SystemState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MatrixPhase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase being self-connected, being connected with the RVE boundary and separating other objects from each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetalCeramicComposite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite having a MetallicMatrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metallic alloys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A microstructure is a spatial pattern with at least one solid direct part.Microstructure are material structures seen at the micro level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"very small scale" in wikipedia. Important to keep it I think. Scale varies a lot: 50 nm to 1 mm. Definition of micro and meso scale? The scale depends on the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasSpatialDirectPart some Solid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Microstructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicrostructureParameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicrostructureState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subclass of material state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MisOrientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MobileDislocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MushyZone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a volume where a Fluid and a solid coexist; isA Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isA SolidLiquid, isA Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NeighborGrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumberDensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a number per volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obstacle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identical: OrientationDistributionFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isSignFor Texture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isIdentical OrientationDistributionFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrientationDistributionFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a statistical way to describe Texture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrowanLoop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParitySymmetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symmetry under spatial mirroring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PartialDislocation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Particle</t>
   </si>
   <si>
-    <t xml:space="preserve">In the physical sciences, a particle (or corpuscule in older texts) is a small localized object to which can be ascribed several physical or chemical properties, such as volume, density, or mass. [Wikipedia]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particle can contain more than one PhaseOfMatter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhaseOfMatter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SinglePhaseParticle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particle containing one PhaseOfMatter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasPart exactly 1 PhaseOfMatter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrimaryParticle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SinglePhaseParticle forming during solidification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MonoCrystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SingleCrystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A material consisting of a single crystal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PolyCrystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A continuous material consisting of a multiple connected crystal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispersoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finely divided particles of one substance [PhaseOfMatter] dispersed in another [Merriam-Webster]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clarify difference from precipitate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precipitate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finely dispersed particles containing one PhaseOfMatter forming from solid phaseOfMatter by precipitation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicroStructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The fine structure (in a metal or other material) which can be made visible and examined with a microscope. [Oxford Languages]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A microstructure is a spatial pattern with at least one solid direct part.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material;SpatialPattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasPart min 1 Solid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An object in the micorstructure. A region of a crystalline material with (almost) the same crystal orientation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A common definition is that grains are separated from their neighbour grains by grain boundaries with a misorientation angle higher than 15 degrees.;Subpart of PolyCrystal consituted primarily of one CrystallinePhase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inverse(hasPart) only MicroStructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubGrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A region of a grain with (almost) the same crystal orientation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A common definition is that subgrains are separated from their neighbours by subgrain boundaries with a misorientation angle between 5 and 15 degrees.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inverse(hasPart) only Grain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orientation is the transformation to go from one ReferenceFrame to another. Orientation covers crystal structure, fiber distribution, rolling direction, …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ObservedVolume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasPart some SpatialBoundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misorientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReferenceFrame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EulerAngles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DistributionFunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhysicalField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity values on a support (2D, 3D, 4D)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find the link with EMMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhysicalScalarField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhysicalVectorField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhysicalTensorField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhysicalDiscretizedField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">array of PhysicalQuantity (position/volume, value)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maybe need a combination to array for position and array for the measured quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generic discretization of a volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesh with one type of volume element.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VoxelGrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cube element, exact same size </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GrainSize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length measured according to a specified procedure (and/or model)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is possible for the numerical part to specify the length in several dimensions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inverse(hasProperty) only Grain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EquivalentSphericalGrainSize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EquivalentSphericalGrainDiameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of an equivalent sphere with the same volume as the grain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EquivalentGrainSize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The grain volume divided by the grain surface area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GrainSurfaceArea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The surface area of a grain.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GrainVolume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The volume of a grain.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CylinderShapedGrainLength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length or thickness of a grain who's shape can be approximated with a cylinder.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CylinderShapedGrainDiameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of a grain who's shape can be approximated with a cylinder.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perspective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concept (prefLabel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elucidation (definition intended for humans)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semiotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mereological</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topological</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alloy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">an amount of matter characterized by a composition. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">forms only one liquid phase under melting ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasProperty Composition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geometrical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AntisiteDefect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An AntisiteDefect occurs in an ordered alloy or compound when atoms of different type exchange positions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA PointDefect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defined in EMMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA MathematicalEntity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AspectRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the ration between the larges and the smalles spatial extension of an object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicrostructureStateVariable, Value &gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AverageCurvature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Curvature of a boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicrostructureStateVariable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AverageDendriteTipRadius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the radius/curvature at the dendrite tip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AverageGrainDiameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equivalent to AverageGrainSize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicrostructureStateVariable, Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isSpatialDirectPartOf GrainDiameterDistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">According to wikipedia/https://www.merriam-webster.com/dictionary/crystallite, crystallites and grains are the same. A crystallite isA single grain in a polycrystalline substance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AverageGrainVolume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Volume divided by Number of Grains </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicrostructureStateVariable, Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AverageSpacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the arithmetic average of multiple spacing valus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boundaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a volume where at least two things collocate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">differentiate Interface - mathematically defined and physical boundary that has a volume. Do we need the mathematical definition?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BulkDefect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imperfection in the geometrical pattern/uniformity in solid. Equivalent to geometrical discontinuity or chemical discontinuity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e.g. pore, oxide, particle, irregular particle, machining chip, crack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Defect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BurgersVector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statiscal property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mechanical properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CauchyStress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not a geometrical property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centroid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maybe define crystalDefect isA Defect. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">material type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CeramicMetalComposite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite having a CeramicMatrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cermet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dislocation detailed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoherentPhaseBoundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boundray between two crystalline solid phases - epitaxial layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there a clear limit? Or are we just talking of small or large mismatch?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA SolidPhaseBoundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoincidentLatticeSite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">special type of grain boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">belongs to crystallography?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColumnarDendrite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendrite with a preferred orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Dendrite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CompositeStructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A man made combination of at least two solid phases forming a microstructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the relative amounts of constituents normalized by the total amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do we have a definition for constituents?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of Atoms of a specific ChemicalElement in a Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConstitutiveLaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A materials relation that describe the total mechanical behaviour of a material via a set of equations relating strain rates to stresses, temperature, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaterialRelation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA BulkDefect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CriticalResolvedShearStress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystallite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CrystallographicDefect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imperfection in the regular geometrical arrangement of the atoms in a crystalline  solid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CrystalStructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Links to CrystalOntology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CubicSymmetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symmetry under 90 rotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">related to microstructure ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import from crystallography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Symmetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curvature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curvature of a boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA GeometricEntity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicrostructureDefects and Crystallographic defects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dendrite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is a characteristic tree like structure occuring in microstructures </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasPorperty SDAS, hasProperty DendriteTipRadius, hasProperty some Symmetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DendriteArray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiple dendrites ordered in an array as occuring e.g. during directional solidification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasProperty PDAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DendriteTipRadius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A value of some variable normed by a volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disclination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In crystallography, a disclination is a line defect in which rotational symmetry is violated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA LineDefect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dislocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a linear crystallographic defect or irregularity within a crystal structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystallographic defect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DislocationDensity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of DislocationLines per Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DislocationJunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DislocationLine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DualBoundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a boundary volume , where two things collocate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasSign Plane; isA Boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EdgeDislocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edge dislocations are caused by the termination of a plane of atoms in the middle of a crystal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Dislocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EffectiveStress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA scalarField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EngineeringStrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metallic alloy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EquiaxedDendrite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EquivalentGrainRadius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radius of a fictitious spherical Grain having the same Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EutecticSpacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the distance between the two eutectic phases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EutecticStructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a Structure comprising two mutually connected solid phases and none of the phases encloses the other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eutectic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EutectoidStructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">example Pearlite...Origin solid state transformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eutectoid differes from Euetctic in terms of lengt scale...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasProperty Spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FacetedPhase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase having a sharp (monolayer) boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polymer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">an object being thin in 2 spatial dimensions and being structurally flexible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasQualitativeProperty Fexlible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ForestDislocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frank-ReadSource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FrenkelDefect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A FrenkelDefect is a defect in the lattice crystal where an atom or ion occupies a normally vacant site other than its own. As a result the atom or ion leaves its own lattice site vacant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Globulite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA EquiaxedDendrite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">an object in the micorstructure. A region of a crystalline material with (almost) the same crystal orientation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not restrictive enough. A pore for example is not a grain. (Identical to Crystallite? )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Crystallite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GrainBoundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the interface between two grains, or crystallites, in a polycrystalline material.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasContactWith exactly 2 Grain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">texture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GrainCluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">two or more neighboring grains (for Alamel and GIA model purposes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GrainDiameterDistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equivalent to GrainSizeDistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicrostructureStateVariable, Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GrainRadiusDistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Volume of a Grain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granularity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wikipedia: Granularity (also called graininess), the condition of existing in granules or grains, refers to the extent to which a material or system is composed of distinguishable pieces. It can either refer to the extent to which a larger entity is subdivided, or the extent to which groups of smaller indistinguishable entities have joined together to become larger distinguishable entities. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HardeningModulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA ScalarField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HexagonalSymmetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symmetry under 60 rotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighAngleGrainBoundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA GrainBoundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HirshLock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IncoherentPhaseBoundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boundray between two crystalline solid phases - incoherent lattices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InterstitialDefect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An interstitial defect is an atom that occupies a site in the crystal structure at which there is usually not an atom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IrregularEutectic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">example Al-Si, Cast Iron  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasPart FacetedPhase, isA Eutectic, hasProperty AverageSpacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LamellarEutectic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stack of planar structures of the two phases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA RegularEutectic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LankfordCoefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check which are generic and which are for multi-crystalline structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LineDefect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A line defect is a line along which whole rows of atoms in a solid are arranged anomalously.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA CrystallographicDefect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LomerCottrellLock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LongFiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fibers extending beyond the RVE boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Fiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LowAngleGrainBoundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not sure wther we need this for "Microstructure.."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MassDensity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same as above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaterialState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The state of a system that is a material.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystemState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MatrixPhase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase being self-connected, being connected with the RVE boundary and separating other objects from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetalCeramicComposite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite having a MetallicMatrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metallic alloys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A microstructure is a spatial pattern with at least one solid direct part.Microstructure are material structures seen at the micro level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"very small scale" in wikipedia. Important to keep it I think. Scale varies a lot: 50 nm to 1 mm. Definition of micro and meso scale? The scale depends on the application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasSpatialDirectPart some Solid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/Microstructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicrostructureParameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicrostructureState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subclass of material state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MisOrientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MobileDislocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MushyZone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a volume where a Fluid and a solid coexist; isA Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isA SolidLiquid, isA Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NeighborGrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumberDensity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a number per volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obstacle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identical: OrientationDistributionFunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isSignFor Texture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isIdentical OrientationDistributionFunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OrientationDistributionFunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a statistical way to describe Texture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OrowanLoop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParitySymmetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symmetry under spatial mirroring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PartialDislocation</t>
-  </si>
-  <si>
     <t xml:space="preserve">rely on the definition of the matrix</t>
   </si>
   <si>
@@ -1418,9 +1562,6 @@
   </si>
   <si>
     <t xml:space="preserve">ProcessVariable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhysicalQuantity</t>
   </si>
   <si>
     <t xml:space="preserve">ProPeritecticPhase</t>
@@ -1984,7 +2125,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2017,11 +2158,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2031,6 +2172,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2063,6 +2208,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2228,13 +2377,13 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="102.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="64.36"/>
   </cols>
@@ -2342,7 +2491,7 @@
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2354,12 +2503,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,9 +2530,6 @@
       <c r="C21" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/emmo.ttl;https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/math.ttl;https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/materials.ttl;https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/metrology.ttl;https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/isq.ttl;https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/properties.ttl;https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/models.ttl;https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/chemistry.ttl"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2401,76 +2545,137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="80.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="12" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/materials.ttl"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/metrology.ttl"/>
-    <hyperlink ref="A7" r:id="rId3" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/isq.ttl"/>
-    <hyperlink ref="A8" r:id="rId4" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/properties.ttl"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/models.ttl"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/chemistry.ttl"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/perspective"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/holistic.ttl"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/persistence"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/physicalistic"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/reductionistic"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/semiotics"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/perceptual"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/persholistic"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/symbolic"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/middle/middle"/>
+    <hyperlink ref="B15" r:id="rId11" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/materials.ttl"/>
+    <hyperlink ref="B16" r:id="rId12" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/metrology.ttl"/>
+    <hyperlink ref="B17" r:id="rId13" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/isq.ttl"/>
+    <hyperlink ref="B18" r:id="rId14" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/properties.ttl"/>
+    <hyperlink ref="B19" r:id="rId15" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/models.ttl"/>
+    <hyperlink ref="B20" r:id="rId16" display="https://raw.githubusercontent.com/emmo-repo/EMMO/1.0.0-beta3/domain/chemistry.ttl"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2487,21 +2692,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1920" topLeftCell="A1" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1950" topLeftCell="A29" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J34" activeCellId="0" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="41.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="43.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.36"/>
@@ -2509,594 +2714,725 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
+      <c r="A1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>47</v>
+      <c r="A2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H4" s="7"/>
       <c r="J4" s="10" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>96</v>
+        <v>105</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="I23" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>176</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>151</v>
+        <v>191</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>192</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F26" r:id="rId1" display="https://en.wikipedia.org/wiki/Representative_elementary_volume"/>
+    <hyperlink ref="F28" r:id="rId2" display="https://en.wikipedia.org/wiki/Frame_of_reference"/>
+    <hyperlink ref="F33" r:id="rId3" display="https://en.wikipedia.org/wiki/Probability_distribution"/>
+    <hyperlink ref="F34" r:id="rId4" display="https://en.wikipedia.org/wiki/Field_(physics"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3118,12 +3454,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.82"/>
@@ -3131,64 +3467,64 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>182</v>
+      <c r="A1" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>185</v>
+        <v>219</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>220</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -3196,23 +3532,23 @@
     </row>
     <row r="3" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>191</v>
+        <v>225</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -3220,21 +3556,21 @@
     </row>
     <row r="4" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="25" t="s">
-        <v>196</v>
+      <c r="F4" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -3242,22 +3578,22 @@
     </row>
     <row r="5" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>199</v>
+        <v>233</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>234</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -3266,22 +3602,22 @@
     </row>
     <row r="6" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>202</v>
+        <v>233</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>237</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -3290,25 +3626,25 @@
     </row>
     <row r="7" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>205</v>
+        <v>233</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>240</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -3316,51 +3652,51 @@
     </row>
     <row r="8" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>208</v>
+        <v>233</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>243</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="N8" s="0" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>213</v>
+        <v>233</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>248</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -3369,23 +3705,23 @@
     </row>
     <row r="10" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -3393,20 +3729,20 @@
     </row>
     <row r="11" customFormat="false" ht="145" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>87</v>
+        <v>254</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="25" t="s">
-        <v>221</v>
+      <c r="F11" s="27" t="s">
+        <v>256</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -3417,25 +3753,25 @@
     </row>
     <row r="12" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>222</v>
+        <v>225</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>257</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="25" t="s">
-        <v>224</v>
+      <c r="F12" s="27" t="s">
+        <v>259</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -3443,13 +3779,13 @@
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>261</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -3463,18 +3799,18 @@
     </row>
     <row r="14" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>229</v>
+        <v>263</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>264</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -3485,13 +3821,13 @@
     </row>
     <row r="15" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>266</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -3499,32 +3835,32 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="N15" s="0" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>236</v>
+        <v>270</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>271</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -3534,13 +3870,13 @@
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>240</v>
+        <v>274</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -3554,25 +3890,25 @@
     </row>
     <row r="18" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>241</v>
+        <v>254</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>276</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -3580,20 +3916,20 @@
     </row>
     <row r="19" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>245</v>
+        <v>254</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>280</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -3604,23 +3940,23 @@
     </row>
     <row r="20" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>248</v>
+        <v>233</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>283</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -3628,21 +3964,21 @@
     </row>
     <row r="21" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>251</v>
+        <v>219</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>286</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -3652,20 +3988,20 @@
     </row>
     <row r="22" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>254</v>
+        <v>219</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>289</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -3676,23 +4012,23 @@
     </row>
     <row r="23" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>257</v>
+        <v>219</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>292</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -3700,16 +4036,16 @@
     </row>
     <row r="24" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="7" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -3718,13 +4054,13 @@
     </row>
     <row r="25" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>263</v>
+        <v>225</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>298</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -3732,7 +4068,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -3740,13 +4076,13 @@
     </row>
     <row r="26" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>300</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -3754,7 +4090,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -3762,16 +4098,16 @@
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -3784,23 +4120,23 @@
     </row>
     <row r="28" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>269</v>
+        <v>219</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>304</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -3808,18 +4144,18 @@
     </row>
     <row r="29" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>271</v>
+        <v>219</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>306</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -3830,25 +4166,25 @@
     </row>
     <row r="30" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>277</v>
+        <v>311</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>312</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -3856,23 +4192,23 @@
     </row>
     <row r="31" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>279</v>
+        <v>233</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>314</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -3880,18 +4216,18 @@
     </row>
     <row r="32" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>282</v>
+        <v>219</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>317</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -3902,23 +4238,23 @@
     </row>
     <row r="33" customFormat="false" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>284</v>
+        <v>233</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>319</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -3926,23 +4262,23 @@
     </row>
     <row r="34" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>287</v>
+        <v>233</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>322</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -3950,23 +4286,23 @@
     </row>
     <row r="35" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>290</v>
+        <v>233</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>325</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -3974,18 +4310,18 @@
     </row>
     <row r="36" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="25" t="s">
-        <v>196</v>
+      <c r="F36" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -3996,23 +4332,23 @@
     </row>
     <row r="37" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>293</v>
+        <v>225</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>328</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -4020,25 +4356,25 @@
     </row>
     <row r="38" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>296</v>
+        <v>225</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>331</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="25" t="s">
-        <v>298</v>
+      <c r="F38" s="27" t="s">
+        <v>333</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -4046,16 +4382,16 @@
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>299</v>
+        <v>225</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>334</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -4068,13 +4404,13 @@
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>301</v>
+        <v>274</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>336</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -4088,13 +4424,13 @@
     </row>
     <row r="41" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>302</v>
+        <v>274</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>337</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -4102,7 +4438,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -4110,13 +4446,13 @@
     </row>
     <row r="42" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>134</v>
+        <v>219</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -4124,7 +4460,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -4132,49 +4468,49 @@
     </row>
     <row r="43" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>303</v>
+        <v>254</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>338</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>307</v>
+        <v>225</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>342</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -4182,13 +4518,13 @@
     </row>
     <row r="45" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>311</v>
+        <v>263</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>346</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -4196,7 +4532,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -4204,13 +4540,13 @@
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>313</v>
+        <v>263</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>348</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -4224,13 +4560,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>315</v>
+        <v>349</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>350</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -4244,25 +4580,25 @@
     </row>
     <row r="48" customFormat="false" ht="41.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>316</v>
+        <v>233</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -4270,22 +4606,22 @@
     </row>
     <row r="49" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>156</v>
+        <v>219</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -4294,23 +4630,23 @@
     </row>
     <row r="50" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>318</v>
+        <v>349</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>353</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -4318,21 +4654,21 @@
     </row>
     <row r="51" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>320</v>
+        <v>349</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>355</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -4342,25 +4678,25 @@
     </row>
     <row r="52" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>323</v>
+        <v>349</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>358</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -4368,23 +4704,23 @@
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>327</v>
+        <v>349</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>362</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -4392,23 +4728,23 @@
     </row>
     <row r="54" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>331</v>
+        <v>365</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>366</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -4416,13 +4752,13 @@
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>334</v>
+        <v>274</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>369</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -4436,13 +4772,13 @@
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>335</v>
+        <v>274</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>370</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -4456,23 +4792,23 @@
     </row>
     <row r="57" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>336</v>
+        <v>225</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>371</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -4480,13 +4816,13 @@
     </row>
     <row r="58" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>338</v>
+        <v>349</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>373</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -4494,7 +4830,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -4502,25 +4838,25 @@
     </row>
     <row r="59" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>118</v>
+        <v>219</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>127</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -4528,42 +4864,42 @@
     </row>
     <row r="60" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>343</v>
+        <v>219</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>378</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>347</v>
+        <v>381</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>382</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
@@ -4576,22 +4912,22 @@
     </row>
     <row r="62" customFormat="false" ht="68.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>349</v>
+        <v>233</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>384</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -4600,20 +4936,20 @@
     </row>
     <row r="63" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>352</v>
+        <v>233</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>387</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -4622,22 +4958,22 @@
     </row>
     <row r="64" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>151</v>
+        <v>219</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -4646,23 +4982,23 @@
     </row>
     <row r="65" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>164</v>
+        <v>219</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -4670,15 +5006,15 @@
     </row>
     <row r="66" customFormat="false" ht="79.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>355</v>
+        <v>219</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>390</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -4689,13 +5025,13 @@
     </row>
     <row r="67" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>357</v>
+        <v>263</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>392</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -4703,7 +5039,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -4711,25 +5047,25 @@
     </row>
     <row r="68" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>277</v>
+        <v>311</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>312</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -4737,13 +5073,13 @@
     </row>
     <row r="69" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>361</v>
+        <v>254</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>396</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -4751,7 +5087,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -4759,13 +5095,13 @@
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>363</v>
+        <v>274</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>398</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -4779,23 +5115,23 @@
     </row>
     <row r="71" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>364</v>
+        <v>254</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>399</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -4803,23 +5139,23 @@
     </row>
     <row r="72" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>366</v>
+        <v>225</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>401</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -4827,23 +5163,23 @@
     </row>
     <row r="73" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>368</v>
+        <v>349</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>403</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
@@ -4851,13 +5187,13 @@
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>371</v>
+        <v>274</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>406</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -4871,13 +5207,13 @@
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>372</v>
+        <v>274</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>407</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -4891,23 +5227,23 @@
     </row>
     <row r="76" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>373</v>
+        <v>349</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>408</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
@@ -4915,16 +5251,16 @@
     </row>
     <row r="77" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>376</v>
+        <v>263</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>411</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -4937,23 +5273,23 @@
     </row>
     <row r="78" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>378</v>
+        <v>225</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>413</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -4961,13 +5297,13 @@
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>381</v>
+        <v>274</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>416</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -4981,23 +5317,23 @@
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>382</v>
+        <v>365</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>417</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
@@ -5005,13 +5341,13 @@
     </row>
     <row r="81" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>385</v>
+        <v>254</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>420</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -5019,7 +5355,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -5027,18 +5363,18 @@
     </row>
     <row r="82" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="E82" s="7"/>
-      <c r="F82" s="25" t="s">
-        <v>196</v>
+      <c r="F82" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -5049,18 +5385,18 @@
     </row>
     <row r="83" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="E83" s="7"/>
-      <c r="F83" s="25" t="s">
-        <v>196</v>
+      <c r="F83" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -5071,16 +5407,16 @@
     </row>
     <row r="84" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="7" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -5089,23 +5425,23 @@
     </row>
     <row r="85" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>393</v>
+        <v>219</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>428</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
@@ -5113,16 +5449,16 @@
     </row>
     <row r="86" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="29" t="s">
-        <v>395</v>
+        <v>270</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>430</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -5135,13 +5471,13 @@
     </row>
     <row r="87" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>397</v>
+        <v>270</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>432</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -5155,37 +5491,37 @@
     </row>
     <row r="88" customFormat="false" ht="174" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>113</v>
+        <v>219</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="K88" s="7"/>
       <c r="L88" s="7" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="7" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -5199,10 +5535,10 @@
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="7" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -5215,7 +5551,7 @@
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -5229,13 +5565,13 @@
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C92" s="34" t="s">
-        <v>406</v>
+        <v>381</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>441</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -5249,13 +5585,13 @@
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C93" s="30" t="s">
-        <v>407</v>
+        <v>274</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>442</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -5269,23 +5605,23 @@
     </row>
     <row r="94" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>408</v>
+        <v>349</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>443</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -5293,13 +5629,13 @@
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>411</v>
+        <v>233</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>446</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -5313,23 +5649,23 @@
     </row>
     <row r="96" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C96" s="36" t="s">
-        <v>413</v>
+        <v>447</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>448</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
       <c r="I96" s="7" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
@@ -5337,13 +5673,13 @@
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C97" s="30" t="s">
-        <v>415</v>
+        <v>274</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>450</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -5357,25 +5693,25 @@
     </row>
     <row r="98" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C98" s="34" t="s">
-        <v>416</v>
+        <v>381</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>451</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -5383,13 +5719,13 @@
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C99" s="34" t="s">
-        <v>126</v>
+        <v>381</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>135</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -5403,25 +5739,25 @@
     </row>
     <row r="100" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C100" s="34" t="s">
-        <v>420</v>
+        <v>381</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>455</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -5429,13 +5765,13 @@
     </row>
     <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>422</v>
+        <v>274</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>457</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -5449,21 +5785,21 @@
     </row>
     <row r="102" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G102" s="25" t="s">
-        <v>277</v>
+        <v>311</v>
+      </c>
+      <c r="G102" s="27" t="s">
+        <v>312</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
@@ -5473,13 +5809,13 @@
     </row>
     <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>425</v>
+        <v>274</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>460</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -5493,18 +5829,18 @@
     </row>
     <row r="104" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>93</v>
+        <v>219</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>461</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
@@ -5515,13 +5851,13 @@
     </row>
     <row r="105" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C105" s="36" t="s">
-        <v>427</v>
+        <v>447</v>
+      </c>
+      <c r="C105" s="38" t="s">
+        <v>463</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -5529,7 +5865,7 @@
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
       <c r="I105" s="7" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -5537,23 +5873,23 @@
     </row>
     <row r="106" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>429</v>
+        <v>219</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>465</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
       <c r="I106" s="7" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
@@ -5561,23 +5897,23 @@
     </row>
     <row r="107" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>431</v>
+        <v>349</v>
+      </c>
+      <c r="C107" s="34" t="s">
+        <v>467</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
       <c r="I107" s="7" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
@@ -5585,23 +5921,23 @@
     </row>
     <row r="108" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>434</v>
+        <v>349</v>
+      </c>
+      <c r="C108" s="34" t="s">
+        <v>470</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
@@ -5609,20 +5945,20 @@
     </row>
     <row r="109" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>437</v>
+        <v>219</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>473</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
       <c r="I109" s="7" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
@@ -5630,23 +5966,23 @@
     </row>
     <row r="110" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C110" s="31" t="s">
-        <v>440</v>
+        <v>254</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>476</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
       <c r="I110" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
@@ -5654,13 +5990,13 @@
     </row>
     <row r="111" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C111" s="37" t="s">
-        <v>444</v>
+        <v>479</v>
+      </c>
+      <c r="C111" s="39" t="s">
+        <v>480</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -5668,7 +6004,7 @@
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
       <c r="I111" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
@@ -5676,13 +6012,13 @@
     </row>
     <row r="112" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>445</v>
+        <v>219</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>481</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -5690,7 +6026,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
       <c r="I112" s="7" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
@@ -5698,23 +6034,23 @@
     </row>
     <row r="113" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>447</v>
+        <v>225</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>483</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
       <c r="I113" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
@@ -5722,23 +6058,23 @@
     </row>
     <row r="114" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="E114" s="38"/>
-      <c r="F114" s="38"/>
+        <v>225</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="E114" s="40"/>
+      <c r="F114" s="40"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
       <c r="I114" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
@@ -5746,13 +6082,13 @@
     </row>
     <row r="115" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C115" s="29" t="s">
-        <v>451</v>
+        <v>270</v>
+      </c>
+      <c r="C115" s="31" t="s">
+        <v>487</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -5766,13 +6102,13 @@
     </row>
     <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>452</v>
+        <v>233</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>488</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -5786,13 +6122,13 @@
     </row>
     <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>111</v>
+        <v>219</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>119</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -5806,23 +6142,23 @@
     </row>
     <row r="118" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C118" s="36" t="s">
-        <v>453</v>
+        <v>447</v>
+      </c>
+      <c r="C118" s="38" t="s">
+        <v>489</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
       <c r="I118" s="7" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
@@ -5830,13 +6166,13 @@
     </row>
     <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C119" s="36" t="s">
-        <v>456</v>
+        <v>447</v>
+      </c>
+      <c r="C119" s="38" t="s">
+        <v>492</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -5850,27 +6186,27 @@
     </row>
     <row r="120" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C120" s="26" t="s">
-        <v>457</v>
+        <v>233</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>493</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
@@ -5878,13 +6214,13 @@
     </row>
     <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>461</v>
+        <v>274</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>497</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -5898,20 +6234,20 @@
     </row>
     <row r="122" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7" t="s">
-        <v>464</v>
+        <v>139</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
@@ -5920,23 +6256,23 @@
     </row>
     <row r="123" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C123" s="32" t="s">
-        <v>465</v>
+        <v>349</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
       <c r="I123" s="7" t="s">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -5944,49 +6280,49 @@
     </row>
     <row r="124" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C124" s="27" t="s">
-        <v>468</v>
+        <v>254</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>503</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>471</v>
+        <v>219</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>506</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="7" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
@@ -5996,23 +6332,23 @@
     </row>
     <row r="126" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>475</v>
+        <v>349</v>
+      </c>
+      <c r="C126" s="34" t="s">
+        <v>510</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
       <c r="I126" s="7" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
@@ -6020,57 +6356,57 @@
     </row>
     <row r="127" customFormat="false" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="C127" s="37" t="s">
-        <v>478</v>
+        <v>479</v>
+      </c>
+      <c r="C127" s="39" t="s">
+        <v>513</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="7" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="K127" s="7"/>
       <c r="L127" s="7" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C128" s="33" t="s">
-        <v>486</v>
+        <v>365</v>
+      </c>
+      <c r="C128" s="35" t="s">
+        <v>521</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
       <c r="I128" s="7" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
@@ -6078,16 +6414,16 @@
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C129" s="32" t="s">
-        <v>489</v>
+        <v>349</v>
+      </c>
+      <c r="C129" s="34" t="s">
+        <v>524</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
@@ -6100,23 +6436,23 @@
     </row>
     <row r="130" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>491</v>
+        <v>219</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>526</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
       <c r="I130" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
@@ -6124,23 +6460,23 @@
     </row>
     <row r="131" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C131" s="37" t="s">
-        <v>493</v>
+        <v>479</v>
+      </c>
+      <c r="C131" s="39" t="s">
+        <v>528</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
       <c r="I131" s="7" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
@@ -6148,20 +6484,20 @@
     </row>
     <row r="132" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="D132" s="39" t="s">
-        <v>496</v>
-      </c>
-      <c r="E132" s="39"/>
+        <v>219</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="D132" s="41" t="s">
+        <v>531</v>
+      </c>
+      <c r="E132" s="41"/>
       <c r="F132" s="7" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
@@ -6172,13 +6508,13 @@
     </row>
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C133" s="28" t="s">
-        <v>498</v>
+        <v>263</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>533</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -6192,13 +6528,13 @@
     </row>
     <row r="134" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C134" s="24" t="s">
-        <v>499</v>
+        <v>225</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>534</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -6206,7 +6542,7 @@
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
       <c r="I134" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
@@ -6214,27 +6550,27 @@
     </row>
     <row r="135" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C135" s="26" t="s">
-        <v>500</v>
+        <v>233</v>
+      </c>
+      <c r="C135" s="28" t="s">
+        <v>535</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7" t="s">
-        <v>502</v>
+        <v>537</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
@@ -6242,13 +6578,13 @@
     </row>
     <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>503</v>
+        <v>219</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>538</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -6262,20 +6598,20 @@
     </row>
     <row r="137" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C137" s="26" t="s">
-        <v>504</v>
+        <v>233</v>
+      </c>
+      <c r="C137" s="28" t="s">
+        <v>539</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
@@ -6284,23 +6620,23 @@
     </row>
     <row r="138" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C138" s="33" t="s">
-        <v>505</v>
+        <v>365</v>
+      </c>
+      <c r="C138" s="35" t="s">
+        <v>540</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
       <c r="I138" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
@@ -6308,13 +6644,13 @@
     </row>
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C139" s="30" t="s">
-        <v>507</v>
+        <v>274</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>542</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -6329,20 +6665,20 @@
     <row r="140" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7"/>
       <c r="B140" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C140" s="31" t="s">
-        <v>508</v>
+        <v>254</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>543</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
       <c r="I140" s="7" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
@@ -6350,13 +6686,13 @@
     </row>
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>511</v>
+        <v>349</v>
+      </c>
+      <c r="C141" s="34" t="s">
+        <v>546</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -6370,23 +6706,23 @@
     </row>
     <row r="142" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C142" s="24" t="s">
-        <v>512</v>
+        <v>225</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>547</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
-      <c r="F142" s="25" t="s">
-        <v>298</v>
+      <c r="F142" s="27" t="s">
+        <v>333</v>
       </c>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
       <c r="I142" s="7" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
@@ -6394,14 +6730,14 @@
     </row>
     <row r="143" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C143" s="7" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7" t="s">
-        <v>464</v>
+        <v>139</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
@@ -6410,18 +6746,18 @@
     </row>
     <row r="144" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="B144" s="7"/>
-      <c r="C144" s="34" t="s">
-        <v>516</v>
+      <c r="C144" s="36" t="s">
+        <v>551</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="E144" s="7"/>
-      <c r="F144" s="25" t="s">
-        <v>196</v>
+      <c r="F144" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
@@ -6432,18 +6768,18 @@
     </row>
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C145" s="28" t="s">
-        <v>519</v>
+        <v>263</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>554</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
       <c r="F145" s="7" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
@@ -6454,18 +6790,18 @@
     </row>
     <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C146" s="28" t="s">
-        <v>521</v>
+        <v>263</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>556</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
       <c r="F146" s="7" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
@@ -6476,44 +6812,44 @@
     </row>
     <row r="147" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C147" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="D147" s="34" t="s">
-        <v>523</v>
-      </c>
-      <c r="E147" s="34"/>
+        <v>219</v>
+      </c>
+      <c r="C147" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="D147" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="E147" s="36"/>
       <c r="F147" s="7" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
       <c r="I147" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
     </row>
     <row r="148" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C148" s="7" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="7" t="s">
-        <v>464</v>
+        <v>139</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
@@ -6522,21 +6858,21 @@
     </row>
     <row r="149" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="B149" s="7"/>
       <c r="C149" s="7" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G149" s="25" t="s">
-        <v>277</v>
+        <v>311</v>
+      </c>
+      <c r="G149" s="27" t="s">
+        <v>312</v>
       </c>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
@@ -6546,40 +6882,40 @@
     </row>
     <row r="150" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="7" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="174" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="7" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
@@ -6590,13 +6926,13 @@
     </row>
     <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C152" s="28" t="s">
-        <v>535</v>
+        <v>263</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>570</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -6610,13 +6946,13 @@
     </row>
     <row r="153" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C153" s="37" t="s">
-        <v>536</v>
+        <v>479</v>
+      </c>
+      <c r="C153" s="39" t="s">
+        <v>571</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -6624,7 +6960,7 @@
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
       <c r="I153" s="7" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
@@ -6632,23 +6968,23 @@
     </row>
     <row r="154" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="C154" s="40" t="s">
-        <v>539</v>
+        <v>573</v>
+      </c>
+      <c r="C154" s="42" t="s">
+        <v>574</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
       <c r="I154" s="7" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
@@ -6656,16 +6992,16 @@
     </row>
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C155" s="23" t="s">
-        <v>542</v>
+        <v>219</v>
+      </c>
+      <c r="C155" s="25" t="s">
+        <v>577</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
@@ -6678,13 +7014,13 @@
     </row>
     <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C156" s="34" t="s">
-        <v>544</v>
+        <v>381</v>
+      </c>
+      <c r="C156" s="36" t="s">
+        <v>579</v>
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -6692,7 +7028,7 @@
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
       <c r="I156" s="7" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
@@ -6700,39 +7036,39 @@
     </row>
     <row r="157" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C157" s="27" t="s">
-        <v>546</v>
+        <v>254</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
       <c r="I157" s="7" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="J157" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
     </row>
     <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C158" s="28" t="s">
-        <v>549</v>
+        <v>263</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>584</v>
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -6746,23 +7082,23 @@
     </row>
     <row r="159" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C159" s="24" t="s">
-        <v>550</v>
+        <v>225</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>585</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
-      <c r="F159" s="25" t="s">
-        <v>298</v>
+      <c r="F159" s="27" t="s">
+        <v>333</v>
       </c>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
       <c r="I159" s="7" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
@@ -6770,13 +7106,13 @@
     </row>
     <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C160" s="30" t="s">
-        <v>550</v>
+        <v>274</v>
+      </c>
+      <c r="C160" s="32" t="s">
+        <v>585</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -6790,13 +7126,13 @@
     </row>
     <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C161" s="34" t="s">
-        <v>551</v>
+        <v>381</v>
+      </c>
+      <c r="C161" s="36" t="s">
+        <v>586</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -6804,7 +7140,7 @@
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
       <c r="I161" s="7" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
@@ -6812,23 +7148,23 @@
     </row>
     <row r="162" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C162" s="23" t="s">
-        <v>552</v>
+        <v>219</v>
+      </c>
+      <c r="C162" s="25" t="s">
+        <v>587</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
       <c r="I162" s="7" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
@@ -6836,13 +7172,13 @@
     </row>
     <row r="163" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C163" s="37" t="s">
-        <v>554</v>
+        <v>479</v>
+      </c>
+      <c r="C163" s="39" t="s">
+        <v>589</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -6850,7 +7186,7 @@
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
       <c r="I163" s="7" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
@@ -6858,13 +7194,13 @@
     </row>
     <row r="164" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C164" s="28" t="s">
-        <v>555</v>
+        <v>263</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>590</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -6872,7 +7208,7 @@
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
       <c r="I164" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
@@ -6880,13 +7216,13 @@
     </row>
     <row r="165" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C165" s="28" t="s">
-        <v>556</v>
+        <v>263</v>
+      </c>
+      <c r="C165" s="30" t="s">
+        <v>591</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -6894,7 +7230,7 @@
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
       <c r="I165" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
@@ -6902,23 +7238,23 @@
     </row>
     <row r="166" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C166" s="37" t="s">
-        <v>149</v>
+        <v>479</v>
+      </c>
+      <c r="C166" s="39" t="s">
+        <v>185</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>557</v>
+        <v>592</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
       <c r="I166" s="7" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
@@ -6926,23 +7262,23 @@
     </row>
     <row r="167" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C167" s="28" t="s">
-        <v>558</v>
+        <v>263</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>593</v>
       </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
       <c r="I167" s="7" t="s">
-        <v>559</v>
+        <v>594</v>
       </c>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
@@ -6950,13 +7286,13 @@
     </row>
     <row r="168" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C168" s="28" t="s">
-        <v>560</v>
+        <v>263</v>
+      </c>
+      <c r="C168" s="30" t="s">
+        <v>595</v>
       </c>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -6964,7 +7300,7 @@
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
       <c r="I168" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
@@ -6972,13 +7308,13 @@
     </row>
     <row r="169" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C169" s="28" t="s">
-        <v>561</v>
+        <v>263</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>596</v>
       </c>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -6986,7 +7322,7 @@
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
       <c r="I169" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
@@ -6994,13 +7330,13 @@
     </row>
     <row r="170" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C170" s="28" t="s">
-        <v>562</v>
+        <v>263</v>
+      </c>
+      <c r="C170" s="30" t="s">
+        <v>597</v>
       </c>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -7008,7 +7344,7 @@
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
       <c r="I170" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
@@ -7036,7 +7372,7 @@
       <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7059,7 +7395,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7082,7 +7418,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/tests/testonto/excelparser/onto.xlsx
+++ b/tests/testonto/excelparser/onto.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francescab\Projects\EMMC\EMMO-python\examples\ontology-from-excel\tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francescab\Projects\EMMC\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141FE7E0-D468-40A0-AAA1-3A00B5D427D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3768AD-8F4A-4168-8D72-5A889E67C260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="150" windowWidth="26520" windowHeight="13725" activeTab="1" xr2:uid="{2EA941AB-E9B1-4DC5-9547-722248AB830E}"/>
+    <workbookView xWindow="1335" yWindow="240" windowWidth="35385" windowHeight="22290" activeTab="2" xr2:uid="{2EA941AB-E9B1-4DC5-9547-722248AB830E}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
-    <sheet name="Concepts" sheetId="1" r:id="rId2"/>
+    <sheet name="ImportedOntologies" sheetId="6" r:id="rId2"/>
+    <sheet name="Concepts" sheetId="1" r:id="rId3"/>
+    <sheet name="ObjectProperties" sheetId="3" r:id="rId4"/>
+    <sheet name="AnnotationProperties" sheetId="4" r:id="rId5"/>
+    <sheet name="DataProperties" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>Concept</t>
   </si>
@@ -100,9 +104,6 @@
     <t>Manchester notation, Separate relations with ";"</t>
   </si>
   <si>
-    <t>Data starts on row 4</t>
-  </si>
-  <si>
     <t>Metadata name</t>
   </si>
   <si>
@@ -157,9 +158,6 @@
     <t>Imported ontologies</t>
   </si>
   <si>
-    <t>Full IRI of imported ontologies. Separate with ";"</t>
-  </si>
-  <si>
     <t>Astrid Marthinsen;Georg Schmidt;Jesper Friis;Sylvain Gouttebroze;Tomas Manik;Ulrike Cihak-Bayr</t>
   </si>
   <si>
@@ -244,24 +242,12 @@
     <t>Phase</t>
   </si>
   <si>
-    <t>Particle</t>
-  </si>
-  <si>
-    <t>Precipitate</t>
-  </si>
-  <si>
-    <t>Grain</t>
-  </si>
-  <si>
     <t>hasPart some Boundary</t>
   </si>
   <si>
     <t>Boundary</t>
   </si>
   <si>
-    <t>TemporalBoundary</t>
-  </si>
-  <si>
     <t>SpatialBoundary</t>
   </si>
   <si>
@@ -284,13 +270,46 @@
   </si>
   <si>
     <t>Just;A;Test</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Resolvable URL or path to imported ontologies (one per line )</t>
+  </si>
+  <si>
+    <t>Empty line to test that this does not fail.</t>
+  </si>
+  <si>
+    <t>Data starts on row 4, Test several altLabels</t>
+  </si>
+  <si>
+    <t>Test missing prefLabel (should be completely disregarded)</t>
+  </si>
+  <si>
+    <t>Test prefLabel starting with Number</t>
+  </si>
+  <si>
+    <t>Test PrefLabel containing spaces</t>
+  </si>
+  <si>
+    <t>Test missing parents</t>
+  </si>
+  <si>
+    <t>Test missing elucidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Temporal Boundary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,8 +333,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,8 +393,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFB4C7E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFC9C9C9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -376,11 +423,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -419,6 +475,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,9 +794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEECC088-989A-4277-A366-69DAA3CBC81F}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScale="292" zoomScaleNormal="292" workbookViewId="0"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -747,36 +809,36 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>0.01</v>
@@ -785,74 +847,66 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
@@ -861,7 +915,7 @@
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
@@ -874,9 +928,6 @@
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -885,11 +936,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E599C59-EBBE-409F-9027-055A4503C4DD}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="120.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D645D5-E8F4-4C20-A45A-A7B2168B3691}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,6 +1007,9 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="8"/>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -987,188 +1074,199 @@
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="11"/>
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="J14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
-        <v>78</v>
+        <v>66</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1181,13 +1279,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DA0DD4-0FE3-4697-86E8-79E6CA6FFC1A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FDD2F-AB3E-416A-B879-D38E3CF3242F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22304DB-D820-4C49-876B-6DD7EE7426E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectLeader>
+    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
+    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectOwner>
+    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
+    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
+    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
+    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
+    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteDocumentAuthor>
+    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectQA>
+    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1710,73 +1907,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectLeader>
-    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
-    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectOwner>
-    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
-    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
-    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
-    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
-    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteDocumentAuthor>
-    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectQA>
-    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5504F3-8457-4CD0-9BA4-F4E5EEC4ABF3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95E916DF-5697-4D04-9AE8-BCDE5705DE19}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="f0e54009-8c9c-44b5-8b9b-dd795f6c992f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c4cb6b28-ce9b-4437-9d9c-1e653dd193be"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1802,19 +1954,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95E916DF-5697-4D04-9AE8-BCDE5705DE19}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5504F3-8457-4CD0-9BA4-F4E5EEC4ABF3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f0e54009-8c9c-44b5-8b9b-dd795f6c992f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c4cb6b28-ce9b-4437-9d9c-1e653dd193be"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/testonto/excelparser/onto.xlsx
+++ b/tests/testonto/excelparser/onto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francescab\Projects\EMMC\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3768AD-8F4A-4168-8D72-5A889E67C260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEB799F-350C-4A87-B6B5-EA12A7C7B18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="240" windowWidth="35385" windowHeight="22290" activeTab="2" xr2:uid="{2EA941AB-E9B1-4DC5-9547-722248AB830E}"/>
+    <workbookView xWindow="12015" yWindow="2325" windowWidth="24750" windowHeight="20430" activeTab="2" xr2:uid="{2EA941AB-E9B1-4DC5-9547-722248AB830E}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>Concept</t>
   </si>
@@ -158,12 +158,6 @@
     <t>Imported ontologies</t>
   </si>
   <si>
-    <t>Astrid Marthinsen;Georg Schmidt;Jesper Friis;Sylvain Gouttebroze;Tomas Manik;Ulrike Cihak-Bayr</t>
-  </si>
-  <si>
-    <t>Microstructure ontology based on EMMO - Top concepts</t>
-  </si>
-  <si>
     <t>Pattern</t>
   </si>
   <si>
@@ -239,9 +233,6 @@
     <t>SpatialPattern;FinitePattern</t>
   </si>
   <si>
-    <t>Phase</t>
-  </si>
-  <si>
     <t>hasPart some Boundary</t>
   </si>
   <si>
@@ -281,15 +272,9 @@
     <t>Empty line to test that this does not fail.</t>
   </si>
   <si>
-    <t>Data starts on row 4, Test several altLabels</t>
-  </si>
-  <si>
     <t>Test missing prefLabel (should be completely disregarded)</t>
   </si>
   <si>
-    <t>Test prefLabel starting with Number</t>
-  </si>
-  <si>
     <t>Test PrefLabel containing spaces</t>
   </si>
   <si>
@@ -303,6 +288,48 @@
   </si>
   <si>
     <t>Temporal Boundary</t>
+  </si>
+  <si>
+    <t>Test several altLabels</t>
+  </si>
+  <si>
+    <t>Data starts on row 4, Test parent from imrted ontology</t>
+  </si>
+  <si>
+    <t>Test prefLabel is only spaces</t>
+  </si>
+  <si>
+    <t>Test adding concept that already exists (in and imported ontology)</t>
+  </si>
+  <si>
+    <t>Jesper Friis;Sylvain Gouttebroze;Francesca L. Bleken</t>
+  </si>
+  <si>
+    <t>A test domain ontology</t>
+  </si>
+  <si>
+    <t>SINTEF;SINTEF Industry</t>
+  </si>
+  <si>
+    <t>Test several relations</t>
+  </si>
+  <si>
+    <t>Test several parents</t>
+  </si>
+  <si>
+    <t>Test prefLabel with leading or trailing spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boundary </t>
+  </si>
+  <si>
+    <t>Test prefLabel starting with Number, this is currently allowed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>Atom</t>
   </si>
 </sst>
 </file>
@@ -473,12 +500,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,7 +824,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="16"/>
     </row>
@@ -832,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="17"/>
     </row>
@@ -850,7 +877,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C5" s="16"/>
     </row>
@@ -879,7 +906,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>33</v>
@@ -889,7 +916,9 @@
       <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
@@ -949,18 +978,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>78</v>
+      <c r="A2" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -970,10 +999,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D645D5-E8F4-4C20-A45A-A7B2168B3691}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,16 +1023,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="8"/>
@@ -1074,199 +1103,227 @@
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5" s="11"/>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="11"/>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
       <c r="C16" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1289,7 +1346,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1324,70 +1381,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectLeader>
-    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
-    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectOwner>
-    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
-    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
-    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
-    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
-    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteDocumentAuthor>
-    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectQA>
-    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Generic document" ma:contentTypeID="0x01010031B82B69D2361148B4D8F7EC156802130800135FF0806A5B6E4A82730A8DA96F38E4" ma:contentTypeVersion="42" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cf3ec053e01706e36cc905dbd1cf3891">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8bbd4995-53b7-43e2-b62f-10947586ac31" xmlns:ns3="f0e54009-8c9c-44b5-8b9b-dd795f6c992f" xmlns:ns4="c4cb6b28-ce9b-4437-9d9c-1e653dd193be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc4cb9f9d9eaebfce8e7fc49d63413d7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
@@ -1906,6 +1899,70 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectLeader>
+    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
+    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectOwner>
+    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
+    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
+    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
+    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
+    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteDocumentAuthor>
+    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectQA>
+    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1916,24 +1973,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95E916DF-5697-4D04-9AE8-BCDE5705DE19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f0e54009-8c9c-44b5-8b9b-dd795f6c992f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c4cb6b28-ce9b-4437-9d9c-1e653dd193be"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A8E286-8EB5-40D3-9A71-29AF5D9413D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1953,6 +1992,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95E916DF-5697-4D04-9AE8-BCDE5705DE19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f0e54009-8c9c-44b5-8b9b-dd795f6c992f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c4cb6b28-ce9b-4437-9d9c-1e653dd193be"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5504F3-8457-4CD0-9BA4-F4E5EEC4ABF3}">
   <ds:schemaRefs>

--- a/tests/testonto/excelparser/onto.xlsx
+++ b/tests/testonto/excelparser/onto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francescab\Projects\EMMC\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEB799F-350C-4A87-B6B5-EA12A7C7B18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7E2C29-86BA-4859-9C20-218617D0C07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12015" yWindow="2325" windowWidth="24750" windowHeight="20430" activeTab="2" xr2:uid="{2EA941AB-E9B1-4DC5-9547-722248AB830E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="98">
   <si>
     <t>Concept</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Test several altLabels</t>
   </si>
   <si>
-    <t>Data starts on row 4, Test parent from imrted ontology</t>
-  </si>
-  <si>
     <t>Test prefLabel is only spaces</t>
   </si>
   <si>
@@ -330,6 +327,12 @@
   </si>
   <si>
     <t>Atom</t>
+  </si>
+  <si>
+    <t>SpatioTemporalBoundary</t>
+  </si>
+  <si>
+    <t>Data starts on row 4, Test parent from imported ontology</t>
   </si>
 </sst>
 </file>
@@ -877,7 +880,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="16"/>
     </row>
@@ -906,7 +909,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>33</v>
@@ -917,7 +920,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>35</v>
@@ -1001,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D645D5-E8F4-4C20-A45A-A7B2168B3691}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1119,7 @@
       </c>
       <c r="H4" s="11"/>
       <c r="J4" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1195,7 +1198,7 @@
         <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1215,7 +1218,7 @@
         <v>68</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1243,7 +1246,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>53</v>
@@ -1252,7 +1255,7 @@
         <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1284,6 +1287,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
       <c r="C16" s="11" t="s">
         <v>53</v>
       </c>
@@ -1307,23 +1313,23 @@
         <v>69</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testonto/excelparser/onto.xlsx
+++ b/tests/testonto/excelparser/onto.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t xml:space="preserve">Metadata name</t>
   </si>
@@ -168,13 +168,25 @@
     <t xml:space="preserve">GrainBoundary</t>
   </si>
   <si>
-    <t xml:space="preserve">The boundary of a Grain</t>
+    <t xml:space="preserve">The boundary of a grain</t>
   </si>
   <si>
     <t xml:space="preserve">SpatialBoundary</t>
   </si>
   <si>
-    <t xml:space="preserve">Test parent defined later</t>
+    <t xml:space="preserve">Test not-yet-defined parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubgrainBoundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The boundary of a subgrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LowAngleGrainBoundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test of undefined parent</t>
   </si>
   <si>
     <t xml:space="preserve">Pattern</t>
@@ -811,10 +823,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -927,39 +939,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="G5" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="J5" s="9" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="G6" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="H6" s="8"/>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -967,192 +975,210 @@
       <c r="A7" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="B7" s="0" t="s">
+        <v>60</v>
+      </c>
       <c r="C7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="0" t="s">
         <v>61</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>64</v>
+      </c>
       <c r="E8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>55</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="0" t="s">
         <v>67</v>
       </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="0" t="s">
+        <v>68</v>
+      </c>
       <c r="G9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>57</v>
+        <v>70</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="C12" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="8"/>
+      <c r="E12" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>80</v>
+      </c>
       <c r="J12" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="8"/>
+      <c r="J13" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="C14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>57</v>
+      <c r="E14" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="J15" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="J17" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="0" t="s">
-        <v>93</v>
+      <c r="A18" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="G19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>96</v>
+      <c r="G20" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1211,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testonto/excelparser/onto.xlsx
+++ b/tests/testonto/excelparser/onto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francescab\Projects\EMMC\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francescab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9862AFBE-285D-4D03-87FE-3024212D0041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9571AF-EC9A-4CD9-9D4D-B1EF2C83D15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="34500" windowHeight="20430" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15435" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="110">
   <si>
     <t>Metadata name</t>
   </si>
@@ -341,9 +341,6 @@
     <t>Atom</t>
   </si>
   <si>
-    <t>Test adding concept that already exists (in and imported ontology)</t>
-  </si>
-  <si>
     <t>Object</t>
   </si>
   <si>
@@ -357,6 +354,12 @@
   </si>
   <si>
     <t>Test invalid parent</t>
+  </si>
+  <si>
+    <t>Test adding concept that already exists in and imported ontology)</t>
+  </si>
+  <si>
+    <t>Test defining same concept twice in the same excel sheet</t>
   </si>
 </sst>
 </file>
@@ -455,9 +458,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -493,6 +493,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,91 +892,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4">
         <v>0.01</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -981,36 +984,36 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="10"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="10"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="10"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="10"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="10"/>
+      <c r="C20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1032,12 +1035,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1054,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,81 +1081,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
       <c r="J1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1186,30 +1189,30 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="J7" s="10" t="s">
+      <c r="H7" s="8"/>
+      <c r="J7" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1220,13 +1223,13 @@
       <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>61</v>
       </c>
       <c r="G8" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
       <c r="J8" t="s">
         <v>62</v>
       </c>
@@ -1235,28 +1238,28 @@
       <c r="A9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E9" t="s">
         <v>65</v>
       </c>
       <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="J9" t="s">
         <v>107</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="J9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="8"/>
       <c r="E10" t="s">
         <v>68</v>
       </c>
@@ -1268,7 +1271,7 @@
       <c r="A11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D11" t="s">
@@ -1285,7 +1288,7 @@
       <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>61</v>
       </c>
       <c r="G12" t="s">
@@ -1299,7 +1302,7 @@
       <c r="A13" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E13" t="s">
@@ -1316,7 +1319,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="9"/>
+      <c r="C14" s="8"/>
       <c r="J14" t="s">
         <v>82</v>
       </c>
@@ -1325,7 +1328,7 @@
       <c r="A15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E15" t="s">
@@ -1342,7 +1345,7 @@
       <c r="A16" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>61</v>
       </c>
       <c r="G16" t="s">
@@ -1356,7 +1359,7 @@
       <c r="A17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>61</v>
       </c>
       <c r="G17" t="s">
@@ -1370,7 +1373,7 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>93</v>
       </c>
       <c r="G18" t="s">
@@ -1384,7 +1387,7 @@
       <c r="A19" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>61</v>
       </c>
       <c r="J19" t="s">
@@ -1423,7 +1426,23 @@
         <v>102</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="J24" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1465,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testonto/excelparser/onto.xlsx
+++ b/tests/testonto/excelparser/onto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francescab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sintef-my.sharepoint.com/personal/francesca_l_bleken_sintef_no/Documents/Skrivebord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9571AF-EC9A-4CD9-9D4D-B1EF2C83D15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{BF9571AF-EC9A-4CD9-9D4D-B1EF2C83D15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32CC4B7C-17CE-438B-BDCB-AE6F9A899A12}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15435" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52380" yWindow="-1785" windowWidth="34740" windowHeight="17895" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="125">
   <si>
     <t>Metadata name</t>
   </si>
@@ -360,13 +360,58 @@
   </si>
   <si>
     <t>Test defining same concept twice in the same excel sheet</t>
+  </si>
+  <si>
+    <t>SpecialMolecule</t>
+  </si>
+  <si>
+    <t>Our own special molecules</t>
+  </si>
+  <si>
+    <t>Used for our own special purpose</t>
+  </si>
+  <si>
+    <t>hasPart some Atom</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>emmo</t>
+  </si>
+  <si>
+    <t>AnotherSpecialMolecule</t>
+  </si>
+  <si>
+    <t>Molecule</t>
+  </si>
+  <si>
+    <t>emmo-inferred-chemistry2:Molecule</t>
+  </si>
+  <si>
+    <t>emmo-inferred-chemistry2:hasPart  some emmo-inferred-chemistry2:Atom</t>
+  </si>
+  <si>
+    <t>Test giving prefix from emmo for subclass of and relations. Will be changed to emmo: when prefix is fixed</t>
+  </si>
+  <si>
+    <t>Test giving prefix to relations. Will be changed to emmo: when prefix is fixed</t>
+  </si>
+  <si>
+    <t>base_iri_root</t>
+  </si>
+  <si>
+    <t>If base_iri_root is given, all imported ontologies whose base_iri starts with base_iri_root will be given the same prefix.</t>
+  </si>
+  <si>
+    <t>Local prefix for the imported ontology.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -386,6 +431,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -453,10 +506,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -493,11 +547,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -582,7 +638,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -884,7 +940,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="120.140625" customWidth="1"/>
@@ -1023,47 +1079,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="120.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>24</v>
       </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{4AE6D9F9-5AA3-467D-A245-2C36C0027930}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -1073,7 +1157,7 @@
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="45.85546875" customWidth="1"/>
+    <col min="9" max="9" width="69.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
@@ -1081,16 +1165,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
@@ -1324,7 +1408,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1443,6 +1527,40 @@
       <c r="H24" s="8"/>
       <c r="J24" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1579,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1480,7 +1598,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1495,7 +1613,7 @@
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/tests/testonto/excelparser/onto.xlsx
+++ b/tests/testonto/excelparser/onto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sintef-my.sharepoint.com/personal/francesca_l_bleken_sintef_no/Documents/Skrivebord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{BF9571AF-EC9A-4CD9-9D4D-B1EF2C83D15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32CC4B7C-17CE-438B-BDCB-AE6F9A899A12}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{BF9571AF-EC9A-4CD9-9D4D-B1EF2C83D15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C4AA229-0711-4128-97D8-805D85E67D3B}"/>
   <bookViews>
-    <workbookView xWindow="52380" yWindow="-1785" windowWidth="34740" windowHeight="17895" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37230" windowHeight="10500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="137">
   <si>
     <t>Metadata name</t>
   </si>
@@ -371,6 +371,9 @@
     <t>Used for our own special purpose</t>
   </si>
   <si>
+    <t>emmo:Molecule</t>
+  </si>
+  <si>
     <t>hasPart some Atom</t>
   </si>
   <si>
@@ -386,16 +389,7 @@
     <t>Molecule</t>
   </si>
   <si>
-    <t>emmo-inferred-chemistry2:Molecule</t>
-  </si>
-  <si>
-    <t>emmo-inferred-chemistry2:hasPart  some emmo-inferred-chemistry2:Atom</t>
-  </si>
-  <si>
-    <t>Test giving prefix from emmo for subclass of and relations. Will be changed to emmo: when prefix is fixed</t>
-  </si>
-  <si>
-    <t>Test giving prefix to relations. Will be changed to emmo: when prefix is fixed</t>
+    <t>emmo:hasPart  some emmo:Atom</t>
   </si>
   <si>
     <t>base_iri_root</t>
@@ -405,6 +399,48 @@
   </si>
   <si>
     <t>Local prefix for the imported ontology.</t>
+  </si>
+  <si>
+    <t>testonto</t>
+  </si>
+  <si>
+    <t>http://ontology.info/</t>
+  </si>
+  <si>
+    <t>ANewTestClass</t>
+  </si>
+  <si>
+    <t>testonto:TestClass</t>
+  </si>
+  <si>
+    <t>imported_onto/ontology.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Comment for test</t>
+  </si>
+  <si>
+    <t>Do not give base_iri_root, but leave spaces there (so it is not completely empty)</t>
+  </si>
+  <si>
+    <t>Check that prefix is set to first import (ontology.ttl)</t>
+  </si>
+  <si>
+    <t>AnotherNewTestClass</t>
+  </si>
+  <si>
+    <t>testonto:TestClass2</t>
+  </si>
+  <si>
+    <t>Test giving prefix to relations.</t>
+  </si>
+  <si>
+    <t>Test giving prefix from emmo for subclass of and relations. Prefix is set by choice in ImportedOntologies.</t>
+  </si>
+  <si>
+    <t>Check that prefix is set to subimport (ontology.ttl)</t>
   </si>
 </sst>
 </file>
@@ -510,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -550,6 +586,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1081,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,10 +1136,10 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -1108,10 +1147,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,11 +1161,25 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="18"/>
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -1141,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,27 +1596,49 @@
         <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J25" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I26" t="s">
         <v>119</v>
       </c>
       <c r="J26" t="s">
-        <v>121</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
